--- a/aircraft/reports/manufacturer-aircraft-heatmap.xlsx
+++ b/aircraft/reports/manufacturer-aircraft-heatmap.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q71"/>
+  <dimension ref="A1:Q72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,7 +609,7 @@
         <v>718</v>
       </c>
       <c r="K3" t="n">
-        <v>2143</v>
+        <v>2144</v>
       </c>
       <c r="L3" t="n">
         <v>601</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11">
@@ -1147,7 +1147,7 @@
         <v>547</v>
       </c>
       <c r="G13" t="n">
-        <v>2181</v>
+        <v>2183</v>
       </c>
       <c r="H13" t="n">
         <v>1688</v>
@@ -4208,7 +4208,7 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Vulcanair</t>
+          <t>Viking</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -4257,13 +4257,13 @@
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>Wassmer</t>
+          <t>Vulcanair</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -4312,61 +4312,116 @@
         <v>0</v>
       </c>
       <c r="Q70" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
+          <t>Wassmer</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
           <t>Zenair</t>
         </is>
       </c>
-      <c r="B71" t="n">
-        <v>0</v>
-      </c>
-      <c r="C71" t="n">
-        <v>0</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0</v>
-      </c>
-      <c r="E71" t="n">
-        <v>0</v>
-      </c>
-      <c r="F71" t="n">
-        <v>0</v>
-      </c>
-      <c r="G71" t="n">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0</v>
-      </c>
-      <c r="L71" t="n">
-        <v>0</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0</v>
-      </c>
-      <c r="N71" t="n">
-        <v>0</v>
-      </c>
-      <c r="O71" t="n">
-        <v>0</v>
-      </c>
-      <c r="P71" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q71" t="n">
+      <c r="B72" t="n">
+        <v>0</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q72" t="n">
         <v>1</v>
       </c>
     </row>
